--- a/data/trans_orig/IP2002-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP2002-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39C90F41-AAA5-45E4-971C-DAA2FB3B1CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8677B5CB-0863-4DAA-81DD-EC92A5F9F650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A607C1C3-45D3-4C5B-BF42-92B9AE58FEAA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FDC4BC7D-456F-4228-BED8-FCD38B091D64}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="298">
   <si>
     <t>Menores según si le han extraido dientes o muelas por algún motivo en 2007 (Tasa respuesta: 94,72%)</t>
   </si>
@@ -104,55 +104,55 @@
     <t>9,07%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
   </si>
   <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
   </si>
   <si>
     <t>8,13%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
   </si>
   <si>
     <t>90,93%</t>
   </si>
   <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
   </si>
   <si>
     <t>92,75%</t>
   </si>
   <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
   </si>
   <si>
     <t>91,87%</t>
   </si>
   <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -161,583 +161,577 @@
     <t>7,46%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
   </si>
   <si>
     <t>7,49%</t>
   </si>
   <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2012 (Tasa respuesta: 93,23%)</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
     <t>6,1%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
   </si>
   <si>
     <t>93,9%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2012 (Tasa respuesta: 93,23%)</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
     <t>89,26%</t>
   </si>
   <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
   </si>
   <si>
     <t>6,96%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>3,41%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
   </si>
   <si>
     <t>93,09%</t>
   </si>
   <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
+    <t>98,28%</t>
   </si>
   <si>
     <t>95,66%</t>
   </si>
   <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
   <si>
     <t>6,93%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
   </si>
   <si>
     <t>5,53%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
+    <t>4,32%</t>
   </si>
   <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
   </si>
   <si>
     <t>93,07%</t>
   </si>
   <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>94,47%</t>
   </si>
   <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
+    <t>95,68%</t>
   </si>
   <si>
     <t>93,75%</t>
   </si>
   <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2015 (Tasa respuesta: 93,51%)</t>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2016 (Tasa respuesta: 93,51%)</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>93,97%</t>
   </si>
   <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
   </si>
   <si>
     <t>94,84%</t>
   </si>
   <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
   </si>
   <si>
     <t>93,05%</t>
   </si>
   <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
   </si>
   <si>
     <t>4,6%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
   </si>
   <si>
     <t>95,4%</t>
   </si>
   <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>95,72%</t>
   </si>
   <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>95,56%</t>
   </si>
   <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
+    <t>6,31%</t>
   </si>
   <si>
     <t>6,21%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
   </si>
   <si>
     <t>5,49%</t>
   </si>
   <si>
-    <t>4,57%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
   </si>
   <si>
     <t>95,19%</t>
   </si>
   <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
+    <t>93,69%</t>
   </si>
   <si>
     <t>93,79%</t>
   </si>
   <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
   </si>
   <si>
     <t>94,51%</t>
   </si>
   <si>
-    <t>95,43%</t>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
   <si>
     <t>Menores según si le han extraido dientes o muelas por algún motivo en 2023 (Tasa respuesta: 97,24%)</t>
@@ -746,181 +740,199 @@
     <t>2,07%</t>
   </si>
   <si>
-    <t>7,68%</t>
+    <t>8,31%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>8,97%</t>
+    <t>8,46%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>0,63%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>92,32%</t>
+    <t>91,69%</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>91,03%</t>
+    <t>91,54%</t>
   </si>
   <si>
     <t>97,69%</t>
   </si>
   <si>
-    <t>99,37%</t>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>2,78%</t>
+    <t>2,86%</t>
   </si>
   <si>
     <t>5,43%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>3,58%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
   </si>
   <si>
     <t>95,77%</t>
   </si>
   <si>
-    <t>97,22%</t>
+    <t>97,14%</t>
   </si>
   <si>
     <t>94,57%</t>
   </si>
   <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
   </si>
   <si>
     <t>95,2%</t>
   </si>
   <si>
-    <t>96,42%</t>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
   <si>
     <t>7,56%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
   </si>
   <si>
     <t>9,06%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
   </si>
   <si>
     <t>8,25%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
   </si>
   <si>
     <t>92,44%</t>
   </si>
   <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>90,94%</t>
   </si>
   <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
   </si>
   <si>
     <t>91,75%</t>
   </si>
   <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>3,63%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
   </si>
   <si>
     <t>6,04%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
   </si>
   <si>
     <t>95,13%</t>
   </si>
   <si>
-    <t>96,37%</t>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>93,96%</t>
   </si>
   <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>94,58%</t>
   </si>
   <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39853DBB-2AD3-411D-AA79-737D4FE61929}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80B8FCD-3DA8-4943-BE6C-CBF56E4EDE14}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2233,7 +2245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBFB040-8D2C-4F12-9403-51F13D0626E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4DA891-3A80-4B8B-BB46-484B032535EE}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2992,7 +3004,7 @@
         <v>154</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>120</v>
@@ -3001,13 +3013,13 @@
         <v>85356</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3034,13 @@
         <v>654015</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H17" s="7">
         <v>901</v>
@@ -3037,13 +3049,13 @@
         <v>626219</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M17" s="7">
         <v>1837</v>
@@ -3052,13 +3064,13 @@
         <v>1280235</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,7 +3146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86F6C79-EBC8-4E27-88DA-ED17074F7743}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069D899C-CCFE-47C7-8B43-1B1951723F9B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3151,7 +3163,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3395,13 +3407,13 @@
         <v>1975</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3410,13 +3422,13 @@
         <v>3393</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3428,10 +3440,10 @@
         <v>138</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3458,13 @@
         <v>65399</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H8" s="7">
         <v>79</v>
@@ -3461,13 +3473,13 @@
         <v>52872</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M8" s="7">
         <v>173</v>
@@ -3479,10 +3491,10 @@
         <v>147</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3562,13 @@
         <v>23933</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -3565,13 +3577,13 @@
         <v>30575</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -3580,13 +3592,13 @@
         <v>54508</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3613,13 @@
         <v>439850</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H11" s="7">
         <v>617</v>
@@ -3616,13 +3628,13 @@
         <v>409288</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>1243</v>
@@ -3631,13 +3643,13 @@
         <v>849138</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3717,13 @@
         <v>7809</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3720,13 +3732,13 @@
         <v>6965</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -3735,13 +3747,13 @@
         <v>14774</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,13 +3768,13 @@
         <v>161929</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H14" s="7">
         <v>233</v>
@@ -3771,13 +3783,13 @@
         <v>155738</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>467</v>
@@ -3786,13 +3798,13 @@
         <v>317667</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,13 +3872,13 @@
         <v>33716</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>59</v>
@@ -3875,13 +3887,13 @@
         <v>40933</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>105</v>
@@ -3890,13 +3902,13 @@
         <v>74649</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,13 +3923,13 @@
         <v>667179</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>144</v>
       </c>
       <c r="H17" s="7">
         <v>929</v>
@@ -3926,13 +3938,13 @@
         <v>617898</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M17" s="7">
         <v>1883</v>
@@ -3941,13 +3953,13 @@
         <v>1285077</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,7 +4035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227C9332-DD35-42C8-BABF-2EBD59A8E251}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C17AAE-B99A-41CA-8E3B-B623CF5D1DB3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4040,7 +4052,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4296,13 +4308,13 @@
         <v>1176</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4311,13 +4323,13 @@
         <v>1299</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4326,13 +4338,13 @@
         <v>2475</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,10 +4359,10 @@
         <v>55686</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -4362,10 +4374,10 @@
         <v>48855</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -4377,10 +4389,10 @@
         <v>104541</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>245</v>
@@ -4457,7 +4469,7 @@
         <v>247</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -4487,7 +4499,7 @@
         <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,13 +4514,13 @@
         <v>461257</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>225</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H11" s="7">
         <v>595</v>
@@ -4517,13 +4529,13 @@
         <v>418860</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M11" s="7">
         <v>1198</v>
@@ -4532,13 +4544,13 @@
         <v>880117</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,13 +4618,13 @@
         <v>13099</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -4621,13 +4633,13 @@
         <v>13525</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -4636,13 +4648,13 @@
         <v>26625</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,13 +4669,13 @@
         <v>160263</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>206</v>
@@ -4672,13 +4684,13 @@
         <v>135830</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>424</v>
@@ -4687,13 +4699,13 @@
         <v>296091</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,13 +4773,13 @@
         <v>34657</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -4776,13 +4788,13 @@
         <v>38864</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
@@ -4791,13 +4803,13 @@
         <v>73522</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4824,13 @@
         <v>677206</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>867</v>
@@ -4827,13 +4839,13 @@
         <v>604716</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M17" s="7">
         <v>1766</v>
@@ -4842,13 +4854,13 @@
         <v>1281920</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP2002-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP2002-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8677B5CB-0863-4DAA-81DD-EC92A5F9F650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC2DA545-2F4B-4359-851A-1E82FAA4B018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FDC4BC7D-456F-4228-BED8-FCD38B091D64}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DD7A0720-7259-44FA-97BA-1E76C5F6138E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="298">
-  <si>
-    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2007 (Tasa respuesta: 94,72%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="287">
+  <si>
+    <t>Menores según si le han extraído dientes o muelas por algún motivo en 2007 (Tasa respuesta: 94,72%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,871 +68,838 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si le han extraído dientes o muelas por algún motivo en 2012 (Tasa respuesta: 93,23%)</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>Menores según si le han extraído dientes o muelas por algún motivo en 2016 (Tasa respuesta: 93,51%)</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>Menores según si le han extraído dientes o muelas por algún motivo en 2023 (Tasa respuesta: 97,24%)</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2012 (Tasa respuesta: 93,23%)</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2016 (Tasa respuesta: 93,51%)</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>Menores según si le han extraido dientes o muelas por algún motivo en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
   </si>
   <si>
     <t>94,11%</t>
   </si>
   <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
 </sst>
 </file>
@@ -1344,8 +1311,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80B8FCD-3DA8-4943-BE6C-CBF56E4EDE14}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2423549B-690E-488C-A763-241DA5711B48}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1462,10 +1429,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>6393</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1477,81 +1444,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I4" s="7">
+        <v>7503</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>13896</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>81821</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="I5" s="7">
+        <v>75189</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>157009</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1560,151 +1531,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>88214</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="I6" s="7">
+        <v>82692</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>170905</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D7" s="7">
-        <v>7503</v>
+        <v>29685</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="I7" s="7">
-        <v>6393</v>
+        <v>33934</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="N7" s="7">
-        <v>13896</v>
+        <v>63619</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>113</v>
+        <v>550</v>
       </c>
       <c r="D8" s="7">
-        <v>75189</v>
+        <v>364631</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>122</v>
+        <v>635</v>
       </c>
       <c r="I8" s="7">
-        <v>81821</v>
+        <v>420834</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>235</v>
+        <v>1185</v>
       </c>
       <c r="N8" s="7">
-        <v>157009</v>
+        <v>785465</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,153 +1686,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>124</v>
+        <v>594</v>
       </c>
       <c r="D9" s="7">
-        <v>82692</v>
+        <v>394316</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>132</v>
+        <v>686</v>
       </c>
       <c r="I9" s="7">
-        <v>88214</v>
+        <v>454768</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>256</v>
+        <v>1280</v>
       </c>
       <c r="N9" s="7">
-        <v>170905</v>
+        <v>849084</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7">
+        <v>9743</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="7">
-        <v>33934</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>29685</v>
+        <v>8442</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="N10" s="7">
-        <v>63619</v>
+        <v>18185</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>635</v>
+        <v>223</v>
       </c>
       <c r="D11" s="7">
-        <v>420834</v>
+        <v>152768</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>550</v>
+        <v>207</v>
       </c>
       <c r="I11" s="7">
-        <v>364631</v>
+        <v>138394</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1185</v>
+        <v>430</v>
       </c>
       <c r="N11" s="7">
-        <v>785465</v>
+        <v>291162</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,153 +1841,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>686</v>
+        <v>237</v>
       </c>
       <c r="D12" s="7">
-        <v>454768</v>
+        <v>162511</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>594</v>
+        <v>219</v>
       </c>
       <c r="I12" s="7">
-        <v>394316</v>
+        <v>146836</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1280</v>
+        <v>456</v>
       </c>
       <c r="N12" s="7">
-        <v>849084</v>
+        <v>309347</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D13" s="7">
-        <v>8442</v>
+        <v>45821</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="I13" s="7">
-        <v>9743</v>
+        <v>49879</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="N13" s="7">
-        <v>18185</v>
+        <v>95700</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>207</v>
+        <v>895</v>
       </c>
       <c r="D14" s="7">
-        <v>138394</v>
+        <v>599219</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>223</v>
+        <v>955</v>
       </c>
       <c r="I14" s="7">
-        <v>152768</v>
+        <v>634418</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>430</v>
+        <v>1850</v>
       </c>
       <c r="N14" s="7">
-        <v>291162</v>
+        <v>1233637</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,216 +1996,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>219</v>
+        <v>963</v>
       </c>
       <c r="D15" s="7">
-        <v>146836</v>
+        <v>645040</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>237</v>
+        <v>1029</v>
       </c>
       <c r="I15" s="7">
-        <v>162511</v>
+        <v>684297</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>456</v>
+        <v>1992</v>
       </c>
       <c r="N15" s="7">
-        <v>309347</v>
+        <v>1329337</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>74</v>
-      </c>
-      <c r="D16" s="7">
-        <v>49879</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>68</v>
-      </c>
-      <c r="I16" s="7">
-        <v>45821</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>142</v>
-      </c>
-      <c r="N16" s="7">
-        <v>95700</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>956</v>
-      </c>
-      <c r="D17" s="7">
-        <v>635144</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="7">
-        <v>895</v>
-      </c>
-      <c r="I17" s="7">
-        <v>599219</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1851</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1234363</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1030</v>
-      </c>
-      <c r="D18" s="7">
-        <v>685023</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>963</v>
-      </c>
-      <c r="I18" s="7">
-        <v>645040</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1993</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1330063</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2245,8 +2062,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4DA891-3A80-4B8B-BB46-484B032535EE}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B07D931-D199-4501-AFA0-E77C18579F44}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2262,7 +2079,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2363,96 +2180,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>9770</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="7">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>8639</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>18409</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>78989</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="I5" s="7">
+        <v>73986</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>152975</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,151 +2282,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>88759</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="I6" s="7">
+        <v>82625</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>171384</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7">
-        <v>8639</v>
+        <v>21174</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
+        <v>45</v>
+      </c>
+      <c r="I7" s="7">
+        <v>32276</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" s="7">
+        <v>75</v>
+      </c>
+      <c r="N7" s="7">
+        <v>53451</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="7">
-        <v>9770</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M7" s="7">
-        <v>26</v>
-      </c>
-      <c r="N7" s="7">
-        <v>18409</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>105</v>
+        <v>576</v>
       </c>
       <c r="D8" s="7">
-        <v>73986</v>
+        <v>397866</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
-        <v>114</v>
+        <v>620</v>
       </c>
       <c r="I8" s="7">
-        <v>78989</v>
+        <v>431134</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M8" s="7">
-        <v>219</v>
+        <v>1196</v>
       </c>
       <c r="N8" s="7">
-        <v>152975</v>
+        <v>828999</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,153 +2437,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>116</v>
+        <v>606</v>
       </c>
       <c r="D9" s="7">
-        <v>82625</v>
+        <v>419040</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>129</v>
+        <v>665</v>
       </c>
       <c r="I9" s="7">
-        <v>88759</v>
+        <v>463410</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>245</v>
+        <v>1271</v>
       </c>
       <c r="N9" s="7">
-        <v>171384</v>
+        <v>882450</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>32276</v>
+        <v>5728</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>21174</v>
+        <v>7768</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="N10" s="7">
-        <v>53451</v>
+        <v>13496</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>620</v>
+        <v>211</v>
       </c>
       <c r="D11" s="7">
-        <v>431134</v>
+        <v>149365</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
-        <v>576</v>
+        <v>210</v>
       </c>
       <c r="I11" s="7">
-        <v>397866</v>
+        <v>148254</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
-        <v>1196</v>
+        <v>421</v>
       </c>
       <c r="N11" s="7">
-        <v>828999</v>
+        <v>297620</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,153 +2592,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>665</v>
+        <v>219</v>
       </c>
       <c r="D12" s="7">
-        <v>463410</v>
+        <v>155093</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>606</v>
+        <v>221</v>
       </c>
       <c r="I12" s="7">
-        <v>419040</v>
+        <v>156022</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1271</v>
+        <v>440</v>
       </c>
       <c r="N12" s="7">
-        <v>882450</v>
+        <v>311116</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="D13" s="7">
-        <v>7768</v>
+        <v>36672</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="I13" s="7">
-        <v>5728</v>
+        <v>48684</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="N13" s="7">
-        <v>13496</v>
+        <v>85356</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>210</v>
+        <v>901</v>
       </c>
       <c r="D14" s="7">
-        <v>148254</v>
+        <v>626219</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
-        <v>211</v>
+        <v>935</v>
       </c>
       <c r="I14" s="7">
-        <v>149365</v>
+        <v>653374</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
-        <v>421</v>
+        <v>1836</v>
       </c>
       <c r="N14" s="7">
-        <v>297620</v>
+        <v>1279594</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,216 +2747,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>221</v>
+        <v>954</v>
       </c>
       <c r="D15" s="7">
-        <v>156022</v>
+        <v>662891</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>219</v>
+        <v>1002</v>
       </c>
       <c r="I15" s="7">
-        <v>155093</v>
+        <v>702058</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>440</v>
+        <v>1956</v>
       </c>
       <c r="N15" s="7">
-        <v>311116</v>
+        <v>1364950</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>67</v>
-      </c>
-      <c r="D16" s="7">
-        <v>48684</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="7">
-        <v>53</v>
-      </c>
-      <c r="I16" s="7">
-        <v>36672</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M16" s="7">
-        <v>120</v>
-      </c>
-      <c r="N16" s="7">
-        <v>85356</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>936</v>
-      </c>
-      <c r="D17" s="7">
-        <v>654015</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="7">
-        <v>901</v>
-      </c>
-      <c r="I17" s="7">
-        <v>626219</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1837</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1280235</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1003</v>
-      </c>
-      <c r="D18" s="7">
-        <v>702699</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>954</v>
-      </c>
-      <c r="I18" s="7">
-        <v>662891</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1957</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1365591</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3146,8 +2813,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069D899C-CCFE-47C7-8B43-1B1951723F9B}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BCA94F-69F2-4455-A90D-418B11F29D91}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3163,7 +2830,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3264,88 +2931,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3393</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1975</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="N4" s="7">
+        <v>5368</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="D5" s="7">
+        <v>52872</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="I5" s="7">
+        <v>65399</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="N5" s="7">
+        <v>118270</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,147 +3033,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="D6" s="7">
+        <v>56265</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="I6" s="7">
+        <v>67374</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="N6" s="7">
+        <v>123638</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D7" s="7">
-        <v>1975</v>
+        <v>30575</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="I7" s="7">
-        <v>3393</v>
+        <v>23933</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="N7" s="7">
-        <v>5368</v>
+        <v>54508</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>94</v>
+        <v>617</v>
       </c>
       <c r="D8" s="7">
-        <v>65399</v>
+        <v>409288</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
-        <v>79</v>
+        <v>626</v>
       </c>
       <c r="I8" s="7">
-        <v>52872</v>
+        <v>439850</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M8" s="7">
-        <v>173</v>
+        <v>1243</v>
       </c>
       <c r="N8" s="7">
-        <v>118270</v>
+        <v>849138</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,153 +3188,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>97</v>
+        <v>661</v>
       </c>
       <c r="D9" s="7">
-        <v>67374</v>
+        <v>439863</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>84</v>
+        <v>659</v>
       </c>
       <c r="I9" s="7">
-        <v>56265</v>
+        <v>463783</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>181</v>
+        <v>1320</v>
       </c>
       <c r="N9" s="7">
-        <v>123638</v>
+        <v>903646</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>23933</v>
+        <v>6965</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>30575</v>
+        <v>7809</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>54508</v>
+        <v>14774</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>626</v>
+        <v>233</v>
       </c>
       <c r="D11" s="7">
-        <v>439850</v>
+        <v>155738</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
-        <v>617</v>
+        <v>234</v>
       </c>
       <c r="I11" s="7">
-        <v>409288</v>
+        <v>161929</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
-        <v>1243</v>
+        <v>467</v>
       </c>
       <c r="N11" s="7">
-        <v>849138</v>
+        <v>317667</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,153 +3343,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>659</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>463783</v>
+        <v>162703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>661</v>
+        <v>244</v>
       </c>
       <c r="I12" s="7">
-        <v>439863</v>
+        <v>169738</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1320</v>
+        <v>487</v>
       </c>
       <c r="N12" s="7">
-        <v>903646</v>
+        <v>332441</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D13" s="7">
-        <v>7809</v>
+        <v>40933</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="I13" s="7">
-        <v>6965</v>
+        <v>33716</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M13" s="7">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="N13" s="7">
-        <v>14774</v>
+        <v>74649</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>234</v>
+        <v>929</v>
       </c>
       <c r="D14" s="7">
-        <v>161929</v>
+        <v>617898</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>49</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
-        <v>233</v>
+        <v>954</v>
       </c>
       <c r="I14" s="7">
-        <v>155738</v>
+        <v>667179</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
-        <v>467</v>
+        <v>1883</v>
       </c>
       <c r="N14" s="7">
-        <v>317667</v>
+        <v>1285077</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,216 +3498,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>244</v>
+        <v>988</v>
       </c>
       <c r="D15" s="7">
-        <v>169738</v>
+        <v>658831</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>243</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="7">
-        <v>162703</v>
+        <v>700895</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>487</v>
+        <v>1988</v>
       </c>
       <c r="N15" s="7">
-        <v>332441</v>
+        <v>1359726</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>46</v>
-      </c>
-      <c r="D16" s="7">
-        <v>33716</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H16" s="7">
-        <v>59</v>
-      </c>
-      <c r="I16" s="7">
-        <v>40933</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M16" s="7">
-        <v>105</v>
-      </c>
-      <c r="N16" s="7">
-        <v>74649</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>954</v>
-      </c>
-      <c r="D17" s="7">
-        <v>667179</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H17" s="7">
-        <v>929</v>
-      </c>
-      <c r="I17" s="7">
-        <v>617898</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1883</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1285077</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1000</v>
-      </c>
-      <c r="D18" s="7">
-        <v>700895</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>988</v>
-      </c>
-      <c r="I18" s="7">
-        <v>658831</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1988</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1359726</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4035,8 +3564,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C17AAE-B99A-41CA-8E3B-B623CF5D1DB3}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232B32B7-7110-4CDB-8B6E-B27D4DDD22C2}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4052,7 +3581,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4153,96 +3682,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1336</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1220</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>229</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2556</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="D5" s="7">
+        <v>52363</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>58583</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>110946</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4251,151 +3784,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D6" s="7">
+        <v>53699</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>59803</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>113502</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>1176</v>
+        <v>24195</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>1299</v>
+        <v>21425</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>243</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="N7" s="7">
-        <v>2475</v>
+        <v>45620</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>78</v>
+        <v>595</v>
       </c>
       <c r="D8" s="7">
-        <v>55686</v>
+        <v>429222</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="H8" s="7">
-        <v>65</v>
+        <v>603</v>
       </c>
       <c r="I8" s="7">
-        <v>48855</v>
+        <v>484158</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="M8" s="7">
-        <v>143</v>
+        <v>1198</v>
       </c>
       <c r="N8" s="7">
-        <v>104541</v>
+        <v>913381</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,153 +3939,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>80</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>56862</v>
+        <v>453417</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>67</v>
+        <v>631</v>
       </c>
       <c r="I9" s="7">
-        <v>50154</v>
+        <v>505583</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>147</v>
+        <v>1259</v>
       </c>
       <c r="N9" s="7">
-        <v>107016</v>
+        <v>959001</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>20382</v>
+        <v>13319</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="H10" s="7">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>24040</v>
+        <v>14872</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>249</v>
+        <v>126</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>44422</v>
+        <v>28191</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>603</v>
+        <v>206</v>
       </c>
       <c r="D11" s="7">
-        <v>461257</v>
+        <v>134219</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="H11" s="7">
-        <v>595</v>
+        <v>218</v>
       </c>
       <c r="I11" s="7">
-        <v>418860</v>
+        <v>167207</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>258</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
-        <v>1198</v>
+        <v>424</v>
       </c>
       <c r="N11" s="7">
-        <v>880117</v>
+        <v>301426</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>261</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,153 +4094,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>631</v>
+        <v>225</v>
       </c>
       <c r="D12" s="7">
-        <v>481639</v>
+        <v>147538</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>235</v>
       </c>
       <c r="I12" s="7">
-        <v>442900</v>
+        <v>182079</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1259</v>
+        <v>460</v>
       </c>
       <c r="N12" s="7">
-        <v>924539</v>
+        <v>329617</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7">
-        <v>13099</v>
+        <v>38849</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="I13" s="7">
-        <v>13525</v>
+        <v>37518</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="M13" s="7">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="N13" s="7">
-        <v>26625</v>
+        <v>76367</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>218</v>
+        <v>866</v>
       </c>
       <c r="D14" s="7">
-        <v>160263</v>
+        <v>615805</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7">
-        <v>206</v>
+        <v>899</v>
       </c>
       <c r="I14" s="7">
-        <v>135830</v>
+        <v>709947</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M14" s="7">
-        <v>424</v>
+        <v>1765</v>
       </c>
       <c r="N14" s="7">
-        <v>296091</v>
+        <v>1325753</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,216 +4249,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>235</v>
+        <v>920</v>
       </c>
       <c r="D15" s="7">
-        <v>173362</v>
+        <v>654654</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>946</v>
       </c>
       <c r="I15" s="7">
-        <v>149355</v>
+        <v>747465</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>460</v>
+        <v>1866</v>
       </c>
       <c r="N15" s="7">
-        <v>322716</v>
+        <v>1402120</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>47</v>
-      </c>
-      <c r="D16" s="7">
-        <v>34657</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H16" s="7">
-        <v>54</v>
-      </c>
-      <c r="I16" s="7">
-        <v>38864</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="M16" s="7">
-        <v>101</v>
-      </c>
-      <c r="N16" s="7">
-        <v>73522</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>899</v>
-      </c>
-      <c r="D17" s="7">
-        <v>677206</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H17" s="7">
-        <v>867</v>
-      </c>
-      <c r="I17" s="7">
-        <v>604716</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1766</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1281920</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>946</v>
-      </c>
-      <c r="D18" s="7">
-        <v>711863</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>921</v>
-      </c>
-      <c r="I18" s="7">
-        <v>643580</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1867</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1355442</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
